--- a/GAME/Assets/Documents/Quality Assurance.xlsx
+++ b/GAME/Assets/Documents/Quality Assurance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Test ID</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Camera should zoom out when car is gaining speed</t>
+  </si>
+  <si>
+    <t>5e</t>
+  </si>
+  <si>
+    <t>Check camera movement</t>
+  </si>
+  <si>
+    <t>Camera smoothly zoom in and out when accelerate</t>
   </si>
   <si>
     <t>5d</t>
@@ -304,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -316,6 +325,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -533,11 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="21.57"/>
+    <col customWidth="1" min="4" max="4" width="43.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -834,16 +854,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -857,7 +877,7 @@
       <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -871,7 +891,7 @@
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -885,7 +905,7 @@
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -894,13 +914,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -908,7 +928,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>76</v>
@@ -932,84 +952,95 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>